--- a/Example.xlsx
+++ b/Example.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t xml:space="preserve">Wahlname</t>
   </si>
@@ -28,7 +28,10 @@
     <t xml:space="preserve">Testelection 2025</t>
   </si>
   <si>
-    <t xml:space="preserve">Wahl UID</t>
+    <t xml:space="preserve">Weitere Parteien Rechts hinzufügen, eine Partei pro Spalte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wahl UID(muss einzigartig sein)</t>
   </si>
   <si>
     <t xml:space="preserve">TE2025</t>
@@ -43,6 +46,9 @@
     <t xml:space="preserve">Parteien</t>
   </si>
   <si>
+    <t xml:space="preserve">Partei Kurzname</t>
+  </si>
+  <si>
     <t xml:space="preserve">PLN</t>
   </si>
   <si>
@@ -52,6 +58,9 @@
     <t xml:space="preserve">JAOP</t>
   </si>
   <si>
+    <t xml:space="preserve">Partei voller Name</t>
+  </si>
+  <si>
     <t xml:space="preserve">Party of long Names</t>
   </si>
   <si>
@@ -61,12 +70,21 @@
     <t xml:space="preserve">Just another other party</t>
   </si>
   <si>
+    <t xml:space="preserve">Partei grade in Land-/Bundestag(true/false)</t>
+  </si>
+  <si>
     <t xml:space="preserve">true</t>
   </si>
   <si>
     <t xml:space="preserve">false</t>
   </si>
   <si>
+    <t xml:space="preserve">ParteiID(0,1,2,…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partei hat geantwortet(true/flase)</t>
+  </si>
+  <si>
     <t xml:space="preserve">logo.svg</t>
   </si>
   <si>
@@ -79,6 +97,15 @@
     <t xml:space="preserve">Fragen</t>
   </si>
   <si>
+    <t xml:space="preserve">Antwort Partei 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antwort Partei 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antwort Partei 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">What do you think?</t>
   </si>
   <si>
@@ -88,6 +115,9 @@
     <t xml:space="preserve">We dont think</t>
   </si>
   <si>
+    <t xml:space="preserve">Zustimmung(-1:Keine; 0:Negativ; 1:Neutral; 2: Positiv)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Why do you do?</t>
   </si>
   <si>
@@ -104,6 +134,9 @@
   </si>
   <si>
     <t xml:space="preserve">JAOP sucks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weitere Fragen unten hinzufügen, Zwei Zeilen pro Frage</t>
   </si>
 </sst>
 </file>
@@ -144,20 +177,33 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -186,12 +232,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -204,6 +262,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -212,209 +330,245 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="51.84"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="3"/>
+      <c r="E1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="n">
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="4" t="n">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="n">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="4" t="n">
         <v>-1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="n">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="4" t="n">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Example.xlsx
+++ b/Example.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t xml:space="preserve">Wahlname</t>
   </si>
@@ -82,7 +82,10 @@
     <t xml:space="preserve">ParteiID(0,1,2,…)</t>
   </si>
   <si>
-    <t xml:space="preserve">Partei hat geantwortet(true/flase)</t>
+    <t xml:space="preserve">Partei hat geantwortet(true/false)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parteilogo</t>
   </si>
   <si>
     <t xml:space="preserve">logo.svg</t>
@@ -333,16 +336,16 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="51.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="51.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -457,40 +460,42 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>11</v>
@@ -498,7 +503,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>-1</v>
@@ -512,13 +517,13 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>11</v>
@@ -526,7 +531,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>2</v>
@@ -540,13 +545,13 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>11</v>
@@ -554,7 +559,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>1</v>
@@ -568,7 +573,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
